--- a/cleaned/bank_of_india_mutual_fund_portfolio.xlsx
+++ b/cleaned/bank_of_india_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,21 +511,13 @@
           <t>INE237A165W2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>10000000</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>9936.71</t>
@@ -521,17 +528,24 @@
           <t>0.0536</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>0.07265</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -548,21 +562,13 @@
           <t>INE040A16EU6</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>10000000</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>9922.81</t>
@@ -573,17 +579,24 @@
           <t>0.0535</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -600,21 +613,13 @@
           <t>INE692A16HP7</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FITCH A1+</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>10000000</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>9911.05</t>
@@ -625,17 +630,24 @@
           <t>0.0534</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
+        <is>
+          <t>0.072797</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -652,21 +664,13 @@
           <t>INE476A16YZ9</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>7500000</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7500000</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>7459.94</t>
@@ -677,17 +681,24 @@
           <t>0.0402</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -704,21 +715,13 @@
           <t>INE556F16AR4</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>4974.14</t>
@@ -729,17 +732,24 @@
           <t>0.0268</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -756,21 +766,13 @@
           <t>INE562A16NP0</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>4967.44</t>
@@ -781,17 +783,24 @@
           <t>0.0268</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
+        <is>
+          <t>0.072499</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -808,21 +817,13 @@
           <t>INE562A16MT4</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>4963.38</t>
@@ -833,17 +834,24 @@
           <t>0.0268</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
+        <is>
+          <t>0.072798</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -860,21 +868,13 @@
           <t>INE476A16YH7</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>4960.54</t>
@@ -885,17 +885,24 @@
           <t>0.0267</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
+        <is>
+          <t>0.072599</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -912,21 +919,13 @@
           <t>INE028A16HN9</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FITCH A1+</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>4917.75</t>
@@ -937,17 +936,24 @@
           <t>0.0265</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
+        <is>
+          <t>0.07445</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -964,21 +970,13 @@
           <t>INE028A16HQ2</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FITCH A1+</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>4911.84</t>
@@ -989,17 +987,24 @@
           <t>0.0265</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
+        <is>
+          <t>0.07445</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1016,21 +1021,13 @@
           <t>INE238AD6AJ8</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>4909.16</t>
@@ -1041,17 +1038,24 @@
           <t>0.0265</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
+        <is>
+          <t>0.07505</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1068,21 +1072,13 @@
           <t>INE160A16PK9</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2500000</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>2490.54</t>
@@ -1093,17 +1089,24 @@
           <t>0.0134</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>0.072999</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1120,21 +1123,13 @@
           <t>INE261F16744</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FITCH A1+</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2500000</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>2463.18</t>
@@ -1145,17 +1140,24 @@
           <t>0.0133</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certificate of Deposit       </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
+        <is>
+          <t>0.074749</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Certificate of Deposit  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1172,21 +1174,13 @@
           <t>INE929O14CS4</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>4989.91</t>
@@ -1197,17 +1191,24 @@
           <t>0.0269</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
+        <is>
+          <t>0.073843</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1224,21 +1225,13 @@
           <t>INE511C14XQ5</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>4989.43</t>
@@ -1249,17 +1242,24 @@
           <t>0.0269</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
+        <is>
+          <t>0.07735</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1276,21 +1276,13 @@
           <t>INE700G14MD6</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>4988.35</t>
@@ -1301,17 +1293,24 @@
           <t>0.0269</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
+        <is>
+          <t>0.077494</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1328,21 +1327,13 @@
           <t>INE763G14WF8</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>4967.53</t>
@@ -1353,17 +1344,24 @@
           <t>0.0268</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
+        <is>
+          <t>0.076975</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1380,21 +1378,13 @@
           <t>INE556F14KQ0</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>4967.33</t>
@@ -1405,17 +1395,24 @@
           <t>0.0268</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>0.072751</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1432,21 +1429,13 @@
           <t>INE110L14SX3</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>4956.45</t>
@@ -1457,17 +1446,24 @@
           <t>0.0267</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1484,21 +1480,13 @@
           <t>INE028E14PY6</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>4946.8</t>
@@ -1509,17 +1497,24 @@
           <t>0.0267</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
+        <is>
+          <t>0.076975</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1536,21 +1531,13 @@
           <t>INE261F14MT7</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>4918.15</t>
@@ -1561,17 +1548,24 @@
           <t>0.0265</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr">
+        <is>
+          <t>0.075</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1588,21 +1582,13 @@
           <t>INE860H144S2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>4912.2</t>
@@ -1613,17 +1599,24 @@
           <t>0.0265</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1640,21 +1633,13 @@
           <t>INE110O14ES7</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ICRA A1+</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>4907.59</t>
@@ -1665,17 +1650,24 @@
           <t>0.0265</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1692,21 +1684,13 @@
           <t>INE115A14ET3</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>3200000</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3200000</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>3187.12</t>
@@ -1717,17 +1701,24 @@
           <t>0.0172</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
+        <is>
+          <t>0.07375</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1744,21 +1735,13 @@
           <t>INE338I14HF6</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>3000000</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>2973.61</t>
@@ -1769,17 +1752,24 @@
           <t>0.016</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
+        <is>
+          <t>0.079005</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1796,21 +1786,13 @@
           <t>INE514E14SK8</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2500000</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>2484.64</t>
@@ -1821,17 +1803,24 @@
           <t>0.0134</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1848,21 +1837,13 @@
           <t>INE261F14MN0</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2500000</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>2484.54</t>
@@ -1873,17 +1854,24 @@
           <t>0.0134</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
+        <is>
+          <t>0.0732525</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1900,21 +1888,13 @@
           <t>INE115A14EY3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2500000</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>2477.66</t>
@@ -1925,17 +1905,24 @@
           <t>0.0134</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
+        <is>
+          <t>0.073151</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -1952,21 +1939,13 @@
           <t>INE556F14KW8</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CARE A1+</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2500000</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>2476.31</t>
@@ -1977,17 +1956,24 @@
           <t>0.0133</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
+        <is>
+          <t>0.072754</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2004,21 +1990,13 @@
           <t>INE763G14WK8</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2500000</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>2474.95</t>
@@ -2029,17 +2007,24 @@
           <t>0.0133</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
+        <is>
+          <t>0.076975</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2056,21 +2041,13 @@
           <t>INE002A14KX2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>500000</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>500000</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>499.6</t>
@@ -2081,17 +2058,24 @@
           <t>0.0027</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commercial Paper       </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
+        <is>
+          <t>0.073744</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Commercial Paper  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2108,21 +2092,13 @@
           <t>IN002024Y266</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SOVEREIGN</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>13000000</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13000000</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>12843.95</t>
@@ -2133,17 +2109,24 @@
           <t>0.0692</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill       </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
+        <is>
+          <t>0.065219</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2160,21 +2143,13 @@
           <t>IN002024X425</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SOVEREIGN</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>7500000</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>7500000</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>7391.84</t>
@@ -2185,17 +2160,24 @@
           <t>0.0398</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill       </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
+        <is>
+          <t>0.0651375</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2212,21 +2194,13 @@
           <t>IN002024X342</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>SOVEREIGN</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>4977.22</t>
@@ -2237,17 +2211,24 @@
           <t>0.0268</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill       </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
+        <is>
+          <t>0.064252</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2264,21 +2245,13 @@
           <t>IN002024X383</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>SOVEREIGN</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>4952.06</t>
@@ -2289,17 +2262,24 @@
           <t>0.0267</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill       </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
+        <is>
+          <t>0.064252</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2316,21 +2296,13 @@
           <t>IN002024X409</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>SOVEREIGN</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>5000000</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>4939.98</t>
@@ -2341,17 +2313,24 @@
           <t>0.0266</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill       </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
+        <is>
+          <t>0.065219</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2368,21 +2347,13 @@
           <t>IN002024X433</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>SOVEREIGN</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2500000</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2500000</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>2460.91</t>
@@ -2393,17 +2364,24 @@
           <t>0.0133</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Treasury Bill       </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
+        <is>
+          <t>0.06515</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Treasury Bill  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
@@ -2421,16 +2399,12 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>3468.736</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>3468.736</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>378.46</t>
@@ -2441,17 +2415,20 @@
           <t>0.002</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corporate Debt Market Development Fund       </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>YB01</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Corporate Debt Market Development Fund  NAN nan nan nan nan nan</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>YB01</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Bank of India Mutual Fund</t>
         </is>
